--- a/storage/schema-build/sample/excel.xlsx
+++ b/storage/schema-build/sample/excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imagi\docker\test\170628-schema-build\170628-schema-build\storage\sample\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imagi\docker\test\testpackage\source-code\blog\storage\schema-build-sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16820" windowHeight="8790" tabRatio="747"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16820" windowHeight="8790" tabRatio="747" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="21" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Field</t>
   </si>
@@ -79,14 +79,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Column name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RETURN INDEX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -103,6 +95,18 @@
       </rPr>
       <t>ableName</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refrerenced Table Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refrerenced Column Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,32 +369,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -734,16 +753,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.90625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="38.90625" style="12" customWidth="1"/>
     <col min="4" max="4" width="82.81640625" style="4" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="2"/>
   </cols>
@@ -756,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>9</v>
@@ -773,9 +792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -793,49 +812,51 @@
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="12" t="s">
-        <v>15</v>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="11" t="s">
-        <v>14</v>
+      <c r="B3" s="16"/>
+      <c r="C3" s="22" t="s">
+        <v>15</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>13</v>
+      <c r="D3" s="22"/>
+      <c r="E3" s="19" t="s">
+        <v>16</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
@@ -2002,13 +2023,15 @@
       <c r="G168" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:G4"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
